--- a/DOCUMENTATION/Agile.xlsx
+++ b/DOCUMENTATION/Agile.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
   <si>
     <t>Planned Sprint</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Sprint 1 (Sep 22 - Oct 01)</t>
+    <t>Sprint 1 (Sep 22 - Oct 05)</t>
   </si>
   <si>
     <t>Sprint 1</t>
@@ -46,7 +46,7 @@
     <t>M1-1</t>
   </si>
   <si>
-    <t>As a developer, I need the database schema designed and implemented (User, Flight, Booking tables).</t>
+    <t>Design &amp; implement database schema (User, Flight, Booking) and final user registration fields.</t>
   </si>
   <si>
     <t>Must Have</t>
@@ -64,10 +64,10 @@
     <t>M1-2</t>
   </si>
   <si>
-    <t>As a system, I need sample flight data populated with city/country names and constraints.</t>
-  </si>
-  <si>
-    <t>Sprint 2 (Oct 02 - Oct 15)</t>
+    <t>Populate database with sample flight data (100+ flights) and user accounts.</t>
+  </si>
+  <si>
+    <t>Sprint 2 (Oct 06 - Oct 19)</t>
   </si>
   <si>
     <t>Sprint 2</t>
@@ -76,61 +76,73 @@
     <t>M2-1</t>
   </si>
   <si>
-    <t>As a user, I want to search and retrieve all flights via API for filtering.</t>
-  </si>
-  <si>
-    <t>M2-3</t>
-  </si>
-  <si>
-    <t>As a system, I need to implement dynamic pricing logic (seats, demand, time factors).</t>
-  </si>
-  <si>
-    <t>M2-6</t>
-  </si>
-  <si>
-    <t>As a system, I need a background job (APScheduler) to simulate demand fluctuations.</t>
+    <t>Build REST APIs for flight retrieval and searching (Origin/Destination).</t>
+  </si>
+  <si>
+    <t>M2-2</t>
+  </si>
+  <si>
+    <t>Implement dynamic pricing logic (seats, demand, time factors) and background simulation.</t>
+  </si>
+  <si>
+    <t>M2-4</t>
+  </si>
+  <si>
+    <t>Implement input validation, sorting, and autocomplete search in the UI.</t>
+  </si>
+  <si>
+    <t>Sprint 3 (Oct 20 - Nov 02)</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>M3-1</t>
+  </si>
+  <si>
+    <t>Implement Reserve $\rightarrow$ Pay multi-step workflow with atomic seat reservation.</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>M3-2</t>
+  </si>
+  <si>
+    <t>Implement booking history retrieval and PDF ticket generation (incl. passenger name).</t>
+  </si>
+  <si>
+    <t>M3-3</t>
+  </si>
+  <si>
+    <t>Implement ticket cancellation, partial refund, and record archival to audit log.</t>
   </si>
   <si>
     <t>Should Have</t>
   </si>
   <si>
-    <t>M2-4</t>
-  </si>
-  <si>
-    <t>As a user, I want an autocomplete dropdown for selecting origin and destination airports.</t>
-  </si>
-  <si>
-    <t>Sprint 3 (Oct 16 - Oct 27)</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>M3-1</t>
-  </si>
-  <si>
-    <t>As a user, I want a Reserve → Pay multi-step workflow to hold a seat before payment.</t>
-  </si>
-  <si>
-    <t>M3-2</t>
-  </si>
-  <si>
-    <t>As a system, I must use database transactions to confirm payment and decrement the seat atomically.</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
-    <t>M3-4</t>
-  </si>
-  <si>
-    <t>As a user, I want to view my transaction history and download a personalized PDF ticket.</t>
-  </si>
-  <si>
-    <t>M3-5</t>
-  </si>
-  <si>
-    <t>As a user, I want to cancel a ticket (with partial refund) and view the cancellation history via audit log.</t>
+    <t>Sprint 4 (Nov 03 - Nov 22)</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>M4-1</t>
+  </si>
+  <si>
+    <t>Finalize UI polish (Aesthetic, Layout, Footer) and ensure seamless API connectivity.</t>
+  </si>
+  <si>
+    <t>M4-2</t>
+  </si>
+  <si>
+    <t>Integrate AI Chatbot (Gemini API) for trip planning utility and fix payment/history flow.</t>
+  </si>
+  <si>
+    <t>M4-3</t>
+  </si>
+  <si>
+    <t>Final project testing and successful deployment to Vercel/Streamlit.</t>
   </si>
 </sst>
 </file>
@@ -146,15 +158,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="&quot;Google Sans Text&quot;"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="&quot;Google Sans Text&quot;"/>
     </font>
   </fonts>
   <fills count="3">
@@ -166,8 +175,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
   </fills>
@@ -177,15 +186,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,8 +414,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="28.25"/>
+    <col customWidth="1" min="4" max="4" width="26.13"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="43.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,22 +452,22 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -462,22 +478,22 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -488,22 +504,22 @@
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -514,22 +530,22 @@
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -540,152 +556,178 @@
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
